--- a/health-outbreak/mph/resources/caselist.xlsx
+++ b/health-outbreak/mph/resources/caselist.xlsx
@@ -1,25 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20395"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Disc_Public Health\Courses I teach\MPH ID course\Assignments\Outbreak investigation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Disc_Public Health\Courses I teach\MPH ID course\2023\Assignments\Outbreak investigation\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3091F4DB-E9DE-4A37-8AEE-E64578982086}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13640"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Line listing of  cases" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="88">
   <si>
     <t>Patient ID</t>
   </si>
@@ -280,12 +282,15 @@
   </si>
   <si>
     <t>Not stated</t>
+  </si>
+  <si>
+    <t>This graph is the outbreak cases</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -821,6 +826,958 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU" sz="1200" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Number of Legionella pnuemophila serogroup 1 cases notified in South Australia, 16-23 March 2022</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-AU" sz="1200">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13047222222222221"/>
+          <c:y val="0"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$6:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>44621</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44636</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44637</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44638</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44643</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44644</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44645</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44646</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$6:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B09C-4CA0-A650-8730E3E2FBDE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="637872456"/>
+        <c:axId val="637866880"/>
+      </c:barChart>
+      <c:dateAx>
+        <c:axId val="637872456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="637866880"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+        <c:majorUnit val="5"/>
+        <c:majorTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="637866880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="637872456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>288925</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>593725</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -897,6 +1854,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -932,6 +1906,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1107,7 +2098,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1177,7 +2168,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4">
-        <v>44562</v>
+        <v>44927</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -1215,7 +2206,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4">
-        <v>44576</v>
+        <v>44941</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
@@ -1253,7 +2244,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4">
-        <v>44592</v>
+        <v>44957</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -1294,7 +2285,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4">
-        <v>44607</v>
+        <v>44972</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1332,7 +2323,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4">
-        <v>44608</v>
+        <v>44973</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -1370,7 +2361,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4">
-        <v>44621</v>
+        <v>44986</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
@@ -1408,7 +2399,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4">
-        <v>44636</v>
+        <v>45001</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>12</v>
@@ -1448,7 +2439,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4">
-        <v>44636</v>
+        <v>45001</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>12</v>
@@ -1488,7 +2479,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4">
-        <v>44637</v>
+        <v>45002</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>12</v>
@@ -1530,7 +2521,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="4">
-        <v>44638</v>
+        <v>45003</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>12</v>
@@ -1570,7 +2561,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="4">
-        <v>44643</v>
+        <v>45008</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>12</v>
@@ -1610,7 +2601,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="4">
-        <v>44643</v>
+        <v>45008</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>12</v>
@@ -1652,7 +2643,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="4">
-        <v>44644</v>
+        <v>45009</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>12</v>
@@ -1692,7 +2683,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="4">
-        <v>44644</v>
+        <v>45009</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>12</v>
@@ -1734,7 +2725,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="4">
-        <v>44645</v>
+        <v>45010</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>12</v>
@@ -1776,7 +2767,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="4">
-        <v>44646</v>
+        <v>45011</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>12</v>
@@ -1816,7 +2807,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="4">
-        <v>44646</v>
+        <v>45011</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>12</v>
@@ -1876,4 +2867,184 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:N42"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="L48" sqref="L48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="4">
+        <v>44562</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>44576</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>44592</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>44607</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>44608</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>44621</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>44636</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>44637</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>44638</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>44643</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>44644</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>44645</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>44646</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/health-outbreak/mph/resources/caselist.xlsx
+++ b/health-outbreak/mph/resources/caselist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20395"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Disc_Public Health\Courses I teach\MPH ID course\2023\Assignments\Outbreak investigation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Disc_Public Health\Courses I teach\MPH ID course\2024\Assignments\Outbreak\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3091F4DB-E9DE-4A37-8AEE-E64578982086}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0558BC-50A0-4765-AF66-99917739BB0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Line listing of  cases" sheetId="1" r:id="rId1"/>
@@ -752,7 +752,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -761,13 +761,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1779,9 +1775,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1819,9 +1815,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1854,26 +1850,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1906,26 +1885,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2099,10 +2061,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2122,7 +2084,7 @@
     <col min="13" max="13" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2163,12 +2125,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="4">
-        <v>44927</v>
+        <v>45292</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -2201,12 +2163,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="4">
-        <v>44941</v>
+        <v>45306</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
@@ -2239,12 +2201,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="4">
-        <v>44957</v>
+        <v>45322</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -2280,12 +2242,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="4">
-        <v>44972</v>
+        <v>45337</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -2318,12 +2280,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="4">
-        <v>44973</v>
+        <v>45338</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -2356,12 +2318,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="4">
-        <v>44986</v>
+        <v>45352</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
@@ -2394,471 +2356,437 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="4">
-        <v>45001</v>
-      </c>
-      <c r="C8" s="6" t="s">
+        <v>45367</v>
+      </c>
+      <c r="C8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="1">
         <v>56</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" t="s">
         <v>86</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="L8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="4">
-        <v>45001</v>
-      </c>
-      <c r="C9" s="6" t="s">
+        <v>45367</v>
+      </c>
+      <c r="C9" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" t="s">
         <v>48</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="1">
         <v>43</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" t="s">
         <v>49</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="L9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="4">
-        <v>45002</v>
-      </c>
-      <c r="C10" s="6" t="s">
+        <v>45368</v>
+      </c>
+      <c r="C10" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" t="s">
         <v>52</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="1">
         <v>43</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="J10" t="s">
         <v>49</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="L10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M10" s="6" t="s">
+      <c r="M10" t="s">
         <v>53</v>
       </c>
-      <c r="N10" s="6"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="4">
-        <v>45003</v>
-      </c>
-      <c r="C11" s="6" t="s">
+        <v>45369</v>
+      </c>
+      <c r="C11" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" t="s">
         <v>55</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" t="s">
         <v>56</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="1">
         <v>27</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="J11" t="s">
         <v>57</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="L11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="4">
-        <v>45008</v>
-      </c>
-      <c r="C12" s="6" t="s">
+        <v>45374</v>
+      </c>
+      <c r="C12" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" t="s">
         <v>58</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" t="s">
         <v>59</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" t="s">
         <v>60</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="1">
         <v>32</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="J12" t="s">
         <v>61</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="5" t="s">
+      <c r="L12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="4">
-        <v>45008</v>
-      </c>
-      <c r="C13" s="6" t="s">
+        <v>45374</v>
+      </c>
+      <c r="C13" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" t="s">
         <v>63</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" t="s">
         <v>64</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="1">
         <v>58</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="J13" t="s">
         <v>41</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L13" s="5" t="s">
+      <c r="L13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M13" s="6" t="s">
+      <c r="M13" t="s">
         <v>65</v>
       </c>
-      <c r="N13" s="6"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="4">
-        <v>45009</v>
-      </c>
-      <c r="C14" s="6" t="s">
+        <v>45375</v>
+      </c>
+      <c r="C14" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" t="s">
         <v>66</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" t="s">
         <v>67</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" t="s">
         <v>68</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="1">
         <v>55</v>
       </c>
-      <c r="J14" s="6" t="s">
+      <c r="J14" t="s">
         <v>69</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="5" t="s">
+      <c r="L14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="4">
-        <v>45009</v>
-      </c>
-      <c r="C15" s="6" t="s">
+        <v>45375</v>
+      </c>
+      <c r="C15" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" t="s">
         <v>70</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" t="s">
         <v>71</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" t="s">
         <v>44</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="1">
         <v>70</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="J15" t="s">
         <v>72</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="K15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L15" s="5" t="s">
+      <c r="L15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M15" s="6" t="s">
+      <c r="M15" t="s">
         <v>84</v>
       </c>
-      <c r="N15" s="6"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="4">
-        <v>45010</v>
-      </c>
-      <c r="C16" s="6" t="s">
+        <v>45376</v>
+      </c>
+      <c r="C16" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" t="s">
         <v>73</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" t="s">
         <v>74</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" t="s">
         <v>75</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="1">
         <v>48</v>
       </c>
-      <c r="J16" s="6" t="s">
+      <c r="J16" t="s">
         <v>76</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="K16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L16" s="5" t="s">
+      <c r="L16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M16" s="6" t="s">
+      <c r="M16" t="s">
         <v>53</v>
       </c>
-      <c r="N16" s="6"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="4">
-        <v>45011</v>
-      </c>
-      <c r="C17" s="6" t="s">
+        <v>45377</v>
+      </c>
+      <c r="C17" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" t="s">
         <v>77</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" t="s">
         <v>78</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" t="s">
         <v>79</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="1">
         <v>59</v>
       </c>
-      <c r="J17" s="6" t="s">
+      <c r="J17" t="s">
         <v>25</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K17" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L17" s="5" t="s">
+      <c r="L17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="4">
-        <v>45011</v>
-      </c>
-      <c r="C18" s="6" t="s">
+        <v>45377</v>
+      </c>
+      <c r="C18" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" t="s">
         <v>80</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" t="s">
         <v>81</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" t="s">
         <v>44</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="1">
         <v>29</v>
       </c>
-      <c r="J18" s="6" t="s">
+      <c r="J18" t="s">
         <v>82</v>
       </c>
-      <c r="K18" s="5" t="s">
+      <c r="K18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L18" s="5" t="s">
+      <c r="L18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>83</v>
       </c>
